--- a/flaskCarculator/data/bafu_emission_factors/scores.xlsx
+++ b/flaskCarculator/data/bafu_emission_factors/scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/flaskCarculator/flaskCarculator/data/bafu_emission_factors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58DAF37-E0CF-7E4B-8438-47070A377A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF87A2D8-3568-E84F-AC42-A6EFD0AA8775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="1320" windowWidth="42100" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="1320" windowWidth="42100" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="102">
   <si>
     <t>('biodiesel, from used cooking oil, at fuelling station', 'RER', 'kilogram', 'biodiesel, vehicle grade')</t>
   </si>
@@ -305,9 +305,6 @@
     <t>('transmission, for lorry', 'RER', 'kilogram', 'transmission, for lorry')</t>
   </si>
   <si>
-    <t>('maintenance, lorry 16 metric ton', 'Europe without Switzerland', 'unit', 'maintenance, lorry 16 metric ton')</t>
-  </si>
-  <si>
     <t>('treatment of used lorry, 16 metric ton', 'CH', 'unit', 'used lorry, 16 metric ton')</t>
   </si>
   <si>
@@ -326,16 +323,25 @@
     <t>('other components, for hybrid electric lorry', 'RER', 'kilogram', 'other components, for hybrid electric lorry')</t>
   </si>
   <si>
-    <t>('maintenance, lorry 28 metric ton', 'Europe without Switzerland', 'unit', 'maintenance, lorry 28 metric ton')</t>
-  </si>
-  <si>
-    <t>('maintenance, lorry 40 metric ton', 'Europe without Switzerland', 'unit', 'maintenance, lorry 40 metric ton')</t>
-  </si>
-  <si>
     <t>('treatment of used lorry, 28 metric ton', 'CH', 'unit', 'used lorry, 28 metric ton')</t>
   </si>
   <si>
     <t>('treatment of used lorry, 40 metric ton', 'CH', 'unit', 'used lorry, 40 metric ton')</t>
+  </si>
+  <si>
+    <t>('maintenance, lorry 16 metric ton', 'CH', 'unit', 'maintenance, lorry 16 metric ton')</t>
+  </si>
+  <si>
+    <t>('maintenance, lorry 28 metric ton', 'CH', 'unit', 'maintenance, lorry 28 metric ton')</t>
+  </si>
+  <si>
+    <t>('maintenance, lorry 40 metric ton', 'CH', 'unit', 'maintenance, lorry 40 metric ton')</t>
+  </si>
+  <si>
+    <t>('market for used powertrain from electric passenger car, manual dismantling', 'GLO', 'kilogram', 'used powertrain from electric passenger car, manual dismantling')</t>
+  </si>
+  <si>
+    <t>('polyethylene production, high density, granulate', 'RER', 'kilogram', 'polyethylene, high density, granulate')</t>
   </si>
 </sst>
 </file>
@@ -371,11 +377,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,8 +688,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="138" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1487,7 +1492,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="B73" t="s">
         <v>71</v>
@@ -1498,7 +1503,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B74" t="s">
         <v>71</v>
@@ -1514,7 +1519,7 @@
       <c r="B75" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75">
         <v>32100</v>
       </c>
     </row>
@@ -1525,7 +1530,7 @@
       <c r="B76" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76">
         <v>0.187</v>
       </c>
     </row>
@@ -1536,7 +1541,7 @@
       <c r="B77" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77">
         <v>4.1517377</v>
       </c>
     </row>
@@ -1547,7 +1552,7 @@
       <c r="B78" t="s">
         <v>71</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78">
         <v>4.3871045000000004</v>
       </c>
     </row>
@@ -1558,7 +1563,7 @@
       <c r="B79" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79">
         <v>3.806</v>
       </c>
     </row>
@@ -1569,7 +1574,7 @@
       <c r="B80" t="s">
         <v>71</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80">
         <v>10.786</v>
       </c>
     </row>
@@ -1580,7 +1585,7 @@
       <c r="B81" t="s">
         <v>71</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81">
         <v>3.4144717999999998</v>
       </c>
     </row>
@@ -1591,7 +1596,7 @@
       <c r="B82" t="s">
         <v>71</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82">
         <v>1.9127329</v>
       </c>
     </row>
@@ -1602,7 +1607,7 @@
       <c r="B83" t="s">
         <v>71</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83">
         <v>3.7996851999999999</v>
       </c>
     </row>
@@ -1613,123 +1618,123 @@
       <c r="B84" t="s">
         <v>71</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84">
         <v>6.7389999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B85" t="s">
         <v>71</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85">
         <v>10870.052</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B86" t="s">
         <v>71</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86">
         <v>14337.177</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B87" t="s">
         <v>71</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87">
         <v>20634.553</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" t="s">
         <v>71</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88">
         <v>701.38232000000005</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B89" t="s">
         <v>71</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89">
         <v>1115.8121000000001</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B90" t="s">
         <v>71</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90">
         <v>1711.4256</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>71</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91">
         <v>5.6928400999999997</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>71</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92">
         <v>13.438000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>71</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93">
         <v>8.44</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>71</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94">
         <v>1.93</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>71</v>

--- a/flaskCarculator/data/bafu_emission_factors/scores.xlsx
+++ b/flaskCarculator/data/bafu_emission_factors/scores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/flaskCarculator/flaskCarculator/data/bafu_emission_factors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF87A2D8-3568-E84F-AC42-A6EFD0AA8775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6131028C-5169-6149-B4ED-55C2FB79EFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="1320" windowWidth="42100" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -685,11 +685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D89E633-CC02-A34E-8D53-2187D385F223}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:C241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -709,7 +709,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -720,7 +720,7 @@
         <v>96.97</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -731,7 +731,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -742,7 +742,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -753,7 +753,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -764,7 +764,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -775,7 +775,7 @@
         <v>7.56</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -786,7 +786,7 @@
         <v>0.68400000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -797,7 +797,7 @@
         <v>4.8399999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -808,7 +808,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -819,7 +819,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -830,7 +830,7 @@
         <v>2.9312495222889989</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -874,7 +874,7 @@
         <v>0.52200000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -885,7 +885,7 @@
         <v>-3.0550000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -896,7 +896,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -907,7 +907,7 @@
         <v>12.045182</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -918,7 +918,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -929,7 +929,7 @@
         <v>10.42771325</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -940,7 +940,7 @@
         <v>10.716734499999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -951,7 +951,7 @@
         <v>10.320088800000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -962,7 +962,7 @@
         <v>10.833394999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -973,7 +973,7 @@
         <v>10.833394999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -984,7 +984,7 @@
         <v>7.07</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -995,7 +995,7 @@
         <v>11.69</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>18.63</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>17.186</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>16.329999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>7.9600000000000004E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>23500</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>0.41149999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>11.93</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>-0.91600000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>3.9500000000000004E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>47</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>35.18</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>45</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>29.96</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>41</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>28.42</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>5.96</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>0.41149999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>1.5329999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>55</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>168900</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>40</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>19.02</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>760.5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>46</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>28140</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>56</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>31794</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>43.31</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>1.5840000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>32</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>11.389989</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>100</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>-4.9959999999999997E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>101</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>2.0190000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>32100</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>4.1517377</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>4.3871045000000004</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>3.806</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>10.786</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>3.4144717999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>1.9127329</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>3.7996851999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>6.7389999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>10870.052</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>14337.177</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>71</v>
       </c>
       <c r="C88">
-        <v>701.38232000000005</v>
+        <v>-701.38232000000005</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -1674,7 +1674,7 @@
         <v>71</v>
       </c>
       <c r="C89">
-        <v>1115.8121000000001</v>
+        <v>-1115.8121000000001</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -1685,10 +1685,10 @@
         <v>71</v>
       </c>
       <c r="C90">
-        <v>1711.4256</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1711.4256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>5.6928400999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>13.438000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>8.44</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>3.4390000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>3.3689999999999998E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>48</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>24</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>13.86</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>25</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>50</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>12.56</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>27</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>57</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>63</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>66</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>67</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>165.02573000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>150.586152</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>150.586152</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>12</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>150.586152</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>145.65595479999999</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>152.03620999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>53</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>3</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>39</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>165.02573000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>34</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>165.02573000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>37</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>150.586152</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>150.586152</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>38</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>150.586152</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>35</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>145.65595479999999</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>59</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>62</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>65</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>69</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>51</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>58</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>60</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>64</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>70</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>61</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>22</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>7.4467999999999996</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>21</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>28</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>68</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>54</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>56.46</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>16</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>2</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>42</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>103.7</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>49</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>289.22000000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>23</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>9.32</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>52</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>-10.8</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>43</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>47</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>539.29999999999995</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>45</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>41</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>433.6</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>44</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>83.7</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>30</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>25.55</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>55</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>1752024</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>40</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>303.60000000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>33</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>20363.099999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>46</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>4.1219999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>328546</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>31</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>0.27690999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>56</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>449406</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>32</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>77</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>-9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>78</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>19</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>20</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>48</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>5.69</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>24</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>9.7599999999999996E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>25</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>50</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>94.1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>18</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>307.2</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>27</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>57</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>63</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>66</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>67</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>9</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>15.630221999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>30.958964874999996</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>11</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>30.958964874999996</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>30.958964874999996</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>13</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>28.776840200000002</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>14</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>31.60076625</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>15</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>53</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>3</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>39</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>31.60076625</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>34</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>10.5828054</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>37</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>19.664432249999997</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>36</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>15.388124250000001</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>38</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>31.60076625</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>35</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>31.60076625</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>26</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>59</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>62</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>65</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>69</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>51</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>58</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>60</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>64</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>70</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>61</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>5</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>22</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>1.9449999999999999E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>21</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>28</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>68</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>54</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>16</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>2</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>29.06</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>42</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>10.95</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>49</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>8.86</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>23</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>52</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>-0.95</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>43</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>47</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>52.7</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>45</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>41</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>36.36</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>44</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>30</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>13.98</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>55</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>262000</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>40</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>31.64</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>33</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>981.6</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>46</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>17</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>20143</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>31</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>4.8019999999999996</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>56</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>89395</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>32</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>77</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>-2.1420000000000002E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>78</v>
       </c>
@@ -3355,6 +3355,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C241" xr:uid="{5D89E633-CC02-A34E-8D53-2187D385F223}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="('treatment of municipal solid waste, municipal incineration FAE', 'CH', 'kilowatt hour', 'electricity, for reuse in municipal waste incineration only')"/>
+        <filter val="('treatment of used lorry, 16 metric ton', 'CH', 'unit', 'used lorry, 16 metric ton')"/>
+        <filter val="('treatment of used lorry, 28 metric ton', 'CH', 'unit', 'used lorry, 28 metric ton')"/>
+        <filter val="('treatment of used lorry, 40 metric ton', 'CH', 'unit', 'used lorry, 40 metric ton')"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C241">
       <sortCondition ref="B1:B241"/>
     </sortState>
